--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,298 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 언어를 사용했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}이 {1}감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}이 {1}증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}효과가 추가됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -486,56 +778,485 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1001</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1002</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1003</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1004</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3005</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4001</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10001</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>10002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>10004</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>10005</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>20001</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20002</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>20003</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>20004</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>20005</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20006</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>20007</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>20008</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>20009</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20010</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>30001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>30002</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>30003</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49">
         <v>0</v>
       </c>
     </row>

--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,66 @@
   </si>
   <si>
     <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬5 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,9 +489,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,6 +1323,116 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>100001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>100002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>100003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>100004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>100005</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>110001</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>110002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>110003</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>110004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>110005</v>
+      </c>
+      <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닉네임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,39 +266,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{0}이 {1}감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}이 {1}증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}효과가 추가됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬1 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬4 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬5 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대마나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적중률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>치명타확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적중률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력</t>
+    <t>AtkSpd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,135 +482,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격범위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriDmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dodge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}이 {1}감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}이 {1}증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}효과가 추가됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬1 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬2 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬3 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬4 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬5 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,17 +824,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -803,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +866,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -822,10 +874,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -833,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -855,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -866,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -877,10 +929,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -888,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -899,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -910,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -921,10 +973,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -932,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -984,10 +1036,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -995,10 +1047,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1006,10 +1058,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1017,420 +1069,486 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>3000</v>
+        <v>2001</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4001</v>
+        <v>3006</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10001</v>
+        <v>3007</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>10002</v>
+        <v>3008</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>10003</v>
+        <v>4001</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10004</v>
+        <v>4002</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>10005</v>
+        <v>4003</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>20001</v>
+        <v>4004</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>20002</v>
+        <v>4005</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>20003</v>
+        <v>4006</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>20004</v>
+        <v>4007</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>20005</v>
+        <v>4008</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>20006</v>
+        <v>4009</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20007</v>
+        <v>4010</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20008</v>
+        <v>4011</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20009</v>
+        <v>4012</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>20010</v>
+        <v>4013</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>30001</v>
+        <v>4014</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>30002</v>
+        <v>10001</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>30003</v>
+        <v>10002</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>100001</v>
+        <v>10003</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>100002</v>
+        <v>10004</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>100003</v>
+        <v>10005</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>100004</v>
+        <v>30001</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
+        <v>30002</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>30003</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>100001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>100002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>100003</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>100004</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>100005</v>
       </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>110001</v>
       </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>110002</v>
       </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>110003</v>
       </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>110004</v>
       </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>110005</v>
       </c>
-      <c r="B59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,30 @@
   </si>
   <si>
     <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 {0}증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치 획득량 {0}증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬 효과 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,8 +1054,8 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1041,8 +1065,8 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1052,8 +1076,8 @@
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,8 +1087,8 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1074,8 +1098,8 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1442,7 +1466,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>100001</v>
       </c>
       <c r="B56" t="s">
@@ -1453,7 +1477,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>100002</v>
       </c>
       <c r="B57" t="s">
@@ -1464,7 +1488,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>100003</v>
       </c>
       <c r="B58" t="s">
@@ -1475,7 +1499,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>100004</v>
       </c>
       <c r="B59" t="s">
@@ -1486,7 +1510,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>100005</v>
       </c>
       <c r="B60" t="s">
@@ -1498,7 +1522,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>110001</v>
+        <v>200001</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
@@ -1509,7 +1533,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>110002</v>
+        <v>200002</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
@@ -1520,7 +1544,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>110003</v>
+        <v>200003</v>
       </c>
       <c r="B63" t="s">
         <v>81</v>
@@ -1531,7 +1555,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>110004</v>
+        <v>200004</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
@@ -1542,13 +1566,79 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>110005</v>
+        <v>200005</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>300001</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>300002</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>400001</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>400002</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>500001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>600001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -515,6 +515,14 @@
   </si>
   <si>
     <t>룬 효과 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1038,417 +1046,417 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>3000</v>
+        <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4001</v>
+        <v>3008</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>10001</v>
+        <v>4014</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>30001</v>
+        <v>10005</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1456,188 +1464,199 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>100001</v>
+      <c r="A56">
+        <v>30003</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>200001</v>
+        <v>100005</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>300001</v>
+        <v>200005</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>400001</v>
+        <v>300002</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>400002</v>
+        <v>400001</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>500001</v>
+        <v>400002</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
+        <v>500001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>600001</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>122</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>122</v>
       </c>
     </row>

--- a/Table/String.xlsx
+++ b/Table/String.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="127">
   <si>
     <t>kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,14 @@
   </si>
   <si>
     <t>Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,230 +1252,230 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>4001</v>
+        <v>3009</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>4012</v>
+        <v>4011</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>4013</v>
+        <v>4012</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4014</v>
+        <v>4013</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>10001</v>
+        <v>4014</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>30001</v>
+        <v>10005</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1475,188 +1483,199 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>100001</v>
+      <c r="A57">
+        <v>30003</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>70</v>
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>100002</v>
+        <v>100001</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>100003</v>
+        <v>100002</v>
       </c>
       <c r="B59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>100004</v>
+        <v>100003</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>100005</v>
+        <v>100004</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>200001</v>
+        <v>100005</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>300001</v>
+        <v>200005</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>400001</v>
+        <v>300002</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>400002</v>
+        <v>400001</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>500001</v>
+        <v>400002</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
+        <v>500001</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>600001</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>122</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>122</v>
       </c>
     </row>
